--- a/01)_엑셀기초/엑셀 기초 총정리 특강 1-2.xlsx
+++ b/01)_엑셀기초/엑셀 기초 총정리 특강 1-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Excel_Study\01)_엑셀기초\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD66E716-DD40-40D7-9BC7-2505589AA7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B3C850-4C86-48EC-8119-173BEA924E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{8AD4F461-3B51-44AA-9243-05986E06DF7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="3" activeTab="7" xr2:uid="{8AD4F461-3B51-44AA-9243-05986E06DF7C}"/>
   </bookViews>
   <sheets>
     <sheet name="셀서식이해하기" sheetId="2" r:id="rId1"/>
@@ -3376,8 +3376,4681 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{6945B6B7-6E57-4C64-8559-FC1B8376CF30}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">User:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조건부</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자동화</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서식</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>작을시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>강조할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>범위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>홈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조건부</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서식</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>셀</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>규칙</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>강조</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>작을시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>외쪽</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조건에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조건</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>직접</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> or </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조건의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>셀</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>캡쳐</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{6179E1CE-8B13-4594-B931-E99C8261853D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>키워드</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>강조</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>강조할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>범위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>홈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조건부</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서식</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>셀</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>규칙</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>강조</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>텍스트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>외쪽</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조건에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조건</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>직접</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> or </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조건의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>셀</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">선택
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>건도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3,4 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{D984129A-EA58-4855-A57E-06984BE3AB71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보고서를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>작성</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>숫자가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>존재</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아래의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>순서를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적용하는것</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>좋다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+1. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정렬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+2. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>막대
+정렬인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상단의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정렬을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용하면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>된다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>막대</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>막대</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>곳</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>홈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조건부</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서식</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>막대</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>원하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>색상</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 5 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 5.1 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{74A20002-724A-4A84-B1D4-4DEE247C1C94}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>막대를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>문제점이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>존재</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>바로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>색상이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정해져</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있다는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것이다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.  
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해결</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>막대인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>것이다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.  
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>막대</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>곳</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>홈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조건부</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서식</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>막대</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기타</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>규칙</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>색</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>채우기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그라데이션</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택
+이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 5,6 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 6.1 </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{BCCA4516-6DA9-4302-8315-3AD7DF19B4B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스파크라인은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>흐름에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>따라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> "</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>방향</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>작성된</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>트렌드를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시각화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용하면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>효과적이다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+ </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>범위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>삽입</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>원하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타입의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스파크</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>꺾은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선형</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>열</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> , </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>승패</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 7 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스파크라인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만들기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>원하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>범위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>셀</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>범위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>드래그</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 8
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스파크라인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>색상</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>) 
+1. (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기본</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스파크라인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>범위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스파크라인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>탭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스타일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 9 
+2. (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>심화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스파크라인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>범위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스파크라인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>탭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스파크라인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>색</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기본적인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>색상</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>표식</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>색</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>색상에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>따라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 10.1</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{8868BF8B-1C0B-47C1-989E-BDA11AFCD599}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이콘</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>집합</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>역시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이전</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조건부</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서식과</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비슷</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>범위</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>홈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조건부</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이콘</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>집합</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기타</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>규칙</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종류</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>숫자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">) &gt; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내규에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>따른</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력
+이미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 11,12,13,14</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="165">
   <si>
     <t>10개</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4026,12 +8699,73 @@
     <t>&gt; =D4=F4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>조건부 자동화 서식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드 강조</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스티커</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 막대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급스러운 데이터 막대 사용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파크 라인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + 5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>통화 기호 단축키</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">백분율 서식 단축키 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜 서식 단축키</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + 3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘 집합</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
+    <numFmt numFmtId="6" formatCode="&quot;₩&quot;#,##0;[Red]\-&quot;₩&quot;#,##0"/>
     <numFmt numFmtId="176" formatCode="0&quot;개&quot;"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="General\ &quot;페이지&quot;"/>
@@ -4041,9 +8775,9 @@
     <numFmt numFmtId="182" formatCode="#,##0;;"/>
     <numFmt numFmtId="183" formatCode="General&quot;원&quot;"/>
     <numFmt numFmtId="184" formatCode="General&quot;개&quot;"/>
-    <numFmt numFmtId="193" formatCode="[Color9]\▲#,##0;[Color5]\▼#,##0;\❌"/>
+    <numFmt numFmtId="185" formatCode="[Color9]\▲#,##0;[Color5]\▼#,##0;\❌"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4257,6 +8991,27 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4290,7 +9045,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -4934,6 +9689,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4946,7 +9746,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5274,6 +10074,12 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="185" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5313,11 +10119,26 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5325,7 +10146,38 @@
     <cellStyle name="표준 2" xfId="2" xr:uid="{CD26CF53-CF48-421C-BE08-18C4C998D542}"/>
     <cellStyle name="표준 2 2" xfId="1" xr:uid="{483153ED-2D0E-445E-B1AC-1622A1649E66}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -5929,16 +10781,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>131378</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>102968</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>492671</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>122674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>515005</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>61878</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>501867</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>81585</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5967,8 +10819,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5087006" y="2404734"/>
-          <a:ext cx="1056289" cy="1283213"/>
+          <a:off x="7790792" y="3794726"/>
+          <a:ext cx="1066799" cy="1220152"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5979,16 +10831,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>21020</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>199697</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704192</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>173422</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>189186</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>52553</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>110358</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>26278</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6003,8 +10855,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4976648" y="1177159"/>
-          <a:ext cx="1823545" cy="956442"/>
+          <a:off x="8002313" y="3004646"/>
+          <a:ext cx="1830114" cy="903891"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -6156,16 +11008,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>70338</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>136280</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>219809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>266356</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>54199</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>596067</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>24891</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6194,8 +11046,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5967046" y="1822939"/>
-          <a:ext cx="1128002" cy="1314429"/>
+          <a:off x="6964972" y="2271347"/>
+          <a:ext cx="1126537" cy="1299775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6206,16 +11058,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>87925</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>65944</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>158262</xdr:rowOff>
+      <xdr:rowOff>128954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>545124</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523143</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>106519</xdr:rowOff>
+      <xdr:rowOff>77211</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6230,8 +11082,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6916617" y="1225062"/>
-          <a:ext cx="1793630" cy="956442"/>
+          <a:off x="7561386" y="1184031"/>
+          <a:ext cx="1790699" cy="944718"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -6794,16 +11646,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>379066</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>86140</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>39480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>259312</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>150534</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>607182</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>117404</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6832,8 +11684,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6110631" y="2511288"/>
-          <a:ext cx="1218716" cy="1389611"/>
+          <a:off x="7841697" y="4136336"/>
+          <a:ext cx="1255159" cy="1389611"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6894,16 +11746,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>364434</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24847</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>256762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180274</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>64317</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>119271</xdr:rowOff>
+      <xdr:rowOff>110989</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6918,8 +11770,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6095999" y="1099931"/>
-          <a:ext cx="1823545" cy="1179444"/>
+          <a:off x="5300869" y="1068458"/>
+          <a:ext cx="1878209" cy="1179444"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -7090,22 +11942,11 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>로 표시하려면</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>..?</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7950,10 +12791,10 @@
     <row r="1" spans="2:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="10.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="110"/>
+      <c r="C3" s="112"/>
       <c r="D3" s="10" t="s">
         <v>36</v>
       </c>
@@ -7987,7 +12828,7 @@
       <c r="I4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="122">
+      <c r="J4" s="109">
         <v>12345678</v>
       </c>
     </row>
@@ -8010,7 +12851,7 @@
       <c r="I5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="122">
+      <c r="J5" s="109">
         <v>-12345678</v>
       </c>
     </row>
@@ -8033,7 +12874,7 @@
       <c r="I6" s="14">
         <v>0</v>
       </c>
-      <c r="J6" s="122">
+      <c r="J6" s="109">
         <v>0</v>
       </c>
     </row>
@@ -8092,13 +12933,13 @@
       <c r="D10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="F10" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="113"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="115"/>
     </row>
     <row r="11" spans="2:11" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="40">
@@ -8121,13 +12962,13 @@
       <c r="D12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="114" t="s">
+      <c r="F12" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="2:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="26">
@@ -8139,13 +12980,13 @@
       <c r="D13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="117" t="s">
+      <c r="F13" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
     </row>
     <row r="14" spans="2:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="26">
@@ -8184,8 +13025,8 @@
   </sheetPr>
   <dimension ref="B1:M14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -8354,13 +13195,13 @@
       <c r="B9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="123">
+      <c r="C9" s="110">
         <v>10</v>
       </c>
-      <c r="D9" s="123">
+      <c r="D9" s="110">
         <v>500</v>
       </c>
-      <c r="E9" s="123">
+      <c r="E9" s="110">
         <f>C9*D9</f>
         <v>5000</v>
       </c>
@@ -8373,7 +13214,7 @@
       <c r="I9" s="46">
         <v>500</v>
       </c>
-      <c r="J9" s="123">
+      <c r="J9" s="110">
         <f>H9*I9</f>
         <v>5000</v>
       </c>
@@ -8382,13 +13223,13 @@
       <c r="B10" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="123">
+      <c r="C10" s="110">
         <v>5</v>
       </c>
-      <c r="D10" s="123">
+      <c r="D10" s="110">
         <v>800</v>
       </c>
-      <c r="E10" s="123">
+      <c r="E10" s="110">
         <f>C10*D10</f>
         <v>4000</v>
       </c>
@@ -8401,7 +13242,7 @@
       <c r="I10" s="46">
         <v>800</v>
       </c>
-      <c r="J10" s="123">
+      <c r="J10" s="110">
         <f t="shared" ref="J10:J12" si="1">H10*I10</f>
         <v>4000</v>
       </c>
@@ -8410,14 +13251,14 @@
       <c r="B11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="123">
+      <c r="C11" s="110">
         <v>8</v>
       </c>
-      <c r="D11" s="123">
+      <c r="D11" s="110">
         <v>1300</v>
       </c>
-      <c r="E11" s="123">
-        <f t="shared" ref="E10:E12" si="2">C11*D11</f>
+      <c r="E11" s="110">
+        <f t="shared" ref="E11:E12" si="2">C11*D11</f>
         <v>10400</v>
       </c>
       <c r="G11" s="20" t="s">
@@ -8429,7 +13270,7 @@
       <c r="I11" s="46">
         <v>1300</v>
       </c>
-      <c r="J11" s="123">
+      <c r="J11" s="110">
         <f t="shared" si="1"/>
         <v>10400</v>
       </c>
@@ -8440,13 +13281,13 @@
       <c r="B12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="123">
+      <c r="C12" s="110">
         <v>12</v>
       </c>
       <c r="D12" s="48">
         <v>1400</v>
       </c>
-      <c r="E12" s="123">
+      <c r="E12" s="110">
         <f t="shared" si="2"/>
         <v>16800</v>
       </c>
@@ -8459,7 +13300,7 @@
       <c r="I12" s="46">
         <v>1400</v>
       </c>
-      <c r="J12" s="123">
+      <c r="J12" s="110">
         <f t="shared" si="1"/>
         <v>16800</v>
       </c>
@@ -8473,13 +13314,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78EDDAC-21F5-4957-BD8F-F9DDDC0CADC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78EDDAC-21F5-4957-BD8F-F9DDDC0CADC5}">
   <sheetPr>
     <tabColor rgb="FFFF5050"/>
   </sheetPr>
-  <dimension ref="B1:I16"/>
+  <dimension ref="B1:L16"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8491,25 +13334,26 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="2.5" customWidth="1"/>
     <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="118" t="s">
+    <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
         <v>55</v>
       </c>
@@ -8531,8 +13375,11 @@
       <c r="I4" s="59">
         <v>700000</v>
       </c>
+      <c r="K4" s="124" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="55" t="s">
         <v>56</v>
       </c>
@@ -8545,9 +13392,12 @@
       <c r="E5" s="56">
         <v>213300</v>
       </c>
-      <c r="F5" s="57"/>
+      <c r="F5" s="57">
+        <f t="shared" ref="F5:F16" si="0">SUM(C5:E5)</f>
+        <v>715700</v>
+      </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="55" t="s">
         <v>57</v>
       </c>
@@ -8560,9 +13410,12 @@
       <c r="E6" s="56">
         <v>265500</v>
       </c>
-      <c r="F6" s="57"/>
+      <c r="F6" s="57">
+        <f t="shared" si="0"/>
+        <v>824700</v>
+      </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="55" t="s">
         <v>58</v>
       </c>
@@ -8575,9 +13428,12 @@
       <c r="E7" s="56">
         <v>237400</v>
       </c>
-      <c r="F7" s="57"/>
+      <c r="F7" s="57">
+        <f t="shared" si="0"/>
+        <v>505300</v>
+      </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="55" t="s">
         <v>59</v>
       </c>
@@ -8590,9 +13446,12 @@
       <c r="E8" s="56">
         <v>225000</v>
       </c>
-      <c r="F8" s="57"/>
+      <c r="F8" s="57">
+        <f t="shared" si="0"/>
+        <v>451000</v>
+      </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="55" t="s">
         <v>60</v>
       </c>
@@ -8605,9 +13464,12 @@
       <c r="E9" s="56">
         <v>195300</v>
       </c>
-      <c r="F9" s="57"/>
+      <c r="F9" s="57">
+        <f t="shared" si="0"/>
+        <v>562700</v>
+      </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="55" t="s">
         <v>61</v>
       </c>
@@ -8620,9 +13482,12 @@
       <c r="E10" s="56">
         <v>201700</v>
       </c>
-      <c r="F10" s="57"/>
+      <c r="F10" s="57">
+        <f t="shared" si="0"/>
+        <v>670500</v>
+      </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="55" t="s">
         <v>62</v>
       </c>
@@ -8635,9 +13500,12 @@
       <c r="E11" s="56">
         <v>191600</v>
       </c>
-      <c r="F11" s="57"/>
+      <c r="F11" s="57">
+        <f t="shared" si="0"/>
+        <v>554200</v>
+      </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="55" t="s">
         <v>63</v>
       </c>
@@ -8650,9 +13518,12 @@
       <c r="E12" s="56">
         <v>162700</v>
       </c>
-      <c r="F12" s="57"/>
+      <c r="F12" s="57">
+        <f t="shared" si="0"/>
+        <v>581100</v>
+      </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="55" t="s">
         <v>64</v>
       </c>
@@ -8665,9 +13536,12 @@
       <c r="E13" s="56">
         <v>279700</v>
       </c>
-      <c r="F13" s="57"/>
+      <c r="F13" s="57">
+        <f t="shared" si="0"/>
+        <v>773600</v>
+      </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="55" t="s">
         <v>65</v>
       </c>
@@ -8680,9 +13554,15 @@
       <c r="E14" s="56">
         <v>177200</v>
       </c>
-      <c r="F14" s="57"/>
+      <c r="F14" s="57">
+        <f t="shared" si="0"/>
+        <v>699000</v>
+      </c>
+      <c r="J14" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="55" t="s">
         <v>66</v>
       </c>
@@ -8695,9 +13575,13 @@
       <c r="E15" s="56">
         <v>291000</v>
       </c>
-      <c r="F15" s="57"/>
+      <c r="F15" s="57">
+        <f t="shared" si="0"/>
+        <v>747300</v>
+      </c>
+      <c r="L15" s="126"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="55" t="s">
         <v>67</v>
       </c>
@@ -8710,26 +13594,37 @@
       <c r="E16" s="56">
         <v>271600</v>
       </c>
-      <c r="F16" s="57"/>
+      <c r="F16" s="57">
+        <f t="shared" si="0"/>
+        <v>628600</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="F5:F16">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>$I$4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA025CF8-70C0-4B3B-90B9-AAAAE66AEFA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA025CF8-70C0-4B3B-90B9-AAAAE66AEFA8}">
   <sheetPr>
     <tabColor rgb="FFFF5050"/>
   </sheetPr>
-  <dimension ref="B1:D16"/>
+  <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8740,21 +13635,24 @@
     <col min="5" max="16384" width="8.75" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="61" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="63" t="s">
         <v>88</v>
       </c>
       <c r="D4" s="64" t="s">
         <v>90</v>
       </c>
+      <c r="H4" s="60" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="62" t="s">
         <v>87</v>
       </c>
@@ -8762,57 +13660,60 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="62" t="s">
         <v>86</v>
       </c>
+      <c r="D6" s="60" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="7" spans="2:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="62" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="62" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="62" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="62" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="62" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="62" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="62" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="62" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="62" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="62" t="s">
         <v>76</v>
       </c>
@@ -8821,17 +13722,57 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{B4176A64-0D66-49F3-A1F5-DFEFD7BADB8A}">
+            <xm:f>NOT(ISERROR(SEARCH($D$6,B5)))</xm:f>
+            <xm:f>$D$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{AA2FC244-E1E9-45D8-B0D5-862BCE4234AB}">
+            <xm:f>NOT(ISERROR(SEARCH($D$5,B5)))</xm:f>
+            <xm:f>$D$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B5:B16</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150C596-1061-4C9B-9470-ACC8EBEDCBE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150C596-1061-4C9B-9470-ACC8EBEDCBE3}">
   <sheetPr>
     <tabColor rgb="FFFF5050"/>
   </sheetPr>
-  <dimension ref="B1:F18"/>
+  <dimension ref="B1:N23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8839,19 +13780,25 @@
     <col min="2" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="6" width="15.75" customWidth="1"/>
     <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="119" t="s">
+    <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
     </row>
-    <row r="4" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="66" t="s">
         <v>92</v>
       </c>
@@ -8868,262 +13815,334 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="67" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" s="67" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D5" s="56">
-        <v>5009655</v>
+        <v>766486923</v>
       </c>
       <c r="E5" s="56">
-        <v>532021890</v>
+        <v>2972663566</v>
       </c>
       <c r="F5" s="56">
-        <v>638543227</v>
+        <v>405880783</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="67" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C6" s="67" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D6" s="56">
-        <v>349611043</v>
+        <v>1910171909</v>
       </c>
       <c r="E6" s="56">
-        <v>2061618914</v>
+        <v>2777309743</v>
       </c>
       <c r="F6" s="56">
-        <v>465613450</v>
+        <v>673665111</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="67" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D7" s="56">
-        <v>2062968371</v>
+        <v>684205831</v>
       </c>
       <c r="E7" s="56">
-        <v>1370323292</v>
+        <v>2312967984</v>
       </c>
       <c r="F7" s="56">
-        <v>689802062</v>
+        <v>166330640</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="67" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D8" s="56">
-        <v>190940357</v>
+        <v>349611043</v>
       </c>
       <c r="E8" s="56">
-        <v>19585063</v>
+        <v>2061618914</v>
       </c>
       <c r="F8" s="56">
-        <v>45193805</v>
+        <v>465613450</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="67" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D9" s="56">
-        <v>605072382</v>
+        <v>780782963</v>
       </c>
       <c r="E9" s="56">
-        <v>136971338</v>
+        <v>1977947434</v>
       </c>
       <c r="F9" s="56">
-        <v>388596406</v>
+        <v>113095852</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="56">
-        <v>2306283897</v>
+        <v>2062968371</v>
       </c>
       <c r="E10" s="56">
-        <v>1127249207</v>
+        <v>1370323292</v>
       </c>
       <c r="F10" s="56">
-        <v>744184189</v>
+        <v>689802062</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D11" s="56">
-        <v>684205831</v>
+        <v>2599941461</v>
       </c>
       <c r="E11" s="56">
-        <v>2312967984</v>
+        <v>1226203171</v>
       </c>
       <c r="F11" s="56">
-        <v>166330640</v>
+        <v>678255609</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="67" t="s">
         <v>97</v>
       </c>
       <c r="C12" s="67" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D12" s="56">
-        <v>2445094214</v>
+        <v>2306283897</v>
       </c>
       <c r="E12" s="56">
-        <v>494344206</v>
+        <v>1127249207</v>
       </c>
       <c r="F12" s="56">
-        <v>719614147</v>
+        <v>744184189</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C13" s="67" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D13" s="56">
-        <v>766486923</v>
+        <v>1807372680</v>
       </c>
       <c r="E13" s="56">
-        <v>2972663566</v>
+        <v>977288582</v>
       </c>
       <c r="F13" s="56">
-        <v>405880783</v>
-      </c>
+        <v>544608845</v>
+      </c>
+      <c r="L13" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13" s="125"/>
+      <c r="N13" s="125"/>
     </row>
-    <row r="14" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="67" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D14" s="56">
-        <v>1910171909</v>
+        <v>1069106596</v>
       </c>
       <c r="E14" s="56">
-        <v>2777309743</v>
+        <v>814040888</v>
       </c>
       <c r="F14" s="56">
-        <v>673665111</v>
+        <v>93135043</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="67" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D15" s="56">
-        <v>2599941461</v>
+        <v>5009655</v>
       </c>
       <c r="E15" s="56">
-        <v>1226203171</v>
+        <v>532021890</v>
       </c>
       <c r="F15" s="56">
-        <v>678255609</v>
+        <v>638543227</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D16" s="56">
-        <v>1069106596</v>
+        <v>2445094214</v>
       </c>
       <c r="E16" s="56">
-        <v>814040888</v>
+        <v>494344206</v>
       </c>
       <c r="F16" s="56">
-        <v>93135043</v>
+        <v>719614147</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D17" s="56">
-        <v>780782963</v>
+        <v>605072382</v>
       </c>
       <c r="E17" s="56">
-        <v>1977947434</v>
+        <v>136971338</v>
       </c>
       <c r="F17" s="56">
-        <v>113095852</v>
+        <v>388596406</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="67" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D18" s="56">
-        <v>1807372680</v>
+        <v>190940357</v>
       </c>
       <c r="E18" s="56">
-        <v>977288582</v>
+        <v>19585063</v>
       </c>
       <c r="F18" s="56">
-        <v>544608845</v>
+        <v>45193805</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:F18">
+    <sortCondition descending="1" ref="E5:E18"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="F5:F18">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9C55796E-FA79-4C25-B1E0-7DEA5199110B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E18">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6AE91549-36B3-4B59-999C-1EB03724CBAC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9C55796E-FA79-4C25-B1E0-7DEA5199110B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F5:F18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6AE91549-36B3-4B59-999C-1EB03724CBAC}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E5:E18</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF1CC62-47BC-4CE7-8F4F-CD22489D66CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF1CC62-47BC-4CE7-8F4F-CD22489D66CB}">
   <sheetPr>
     <tabColor rgb="FFFF5050"/>
   </sheetPr>
-  <dimension ref="B1:M21"/>
+  <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9134,23 +14153,27 @@
     <col min="11" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="120" t="str">
+    <row r="1" spans="2:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="122" t="str">
         <f ca="1">TEXT(TODAY(),"yyyy")&amp;"년 상반기 오빠두서점 출판사별 책 판매량 (예제)"</f>
         <v>2024년 상반기 오빠두서점 출판사별 책 판매량 (예제)</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
     </row>
-    <row r="3" spans="2:10" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P3" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="97" t="s">
         <v>114</v>
       </c>
@@ -9179,7 +14202,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="91" t="s">
         <v>108</v>
       </c>
@@ -9207,7 +14230,7 @@
       </c>
       <c r="J5" s="86"/>
     </row>
-    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="85" t="s">
         <v>107</v>
       </c>
@@ -9235,7 +14258,7 @@
       </c>
       <c r="J6" s="80"/>
     </row>
-    <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="85" t="s">
         <v>106</v>
       </c>
@@ -9263,7 +14286,7 @@
       </c>
       <c r="J7" s="80"/>
     </row>
-    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="85" t="s">
         <v>105</v>
       </c>
@@ -9291,7 +14314,7 @@
       </c>
       <c r="J8" s="80"/>
     </row>
-    <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="85" t="s">
         <v>104</v>
       </c>
@@ -9319,7 +14342,7 @@
       </c>
       <c r="J9" s="80"/>
     </row>
-    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="85" t="s">
         <v>103</v>
       </c>
@@ -9347,7 +14370,7 @@
       </c>
       <c r="J10" s="80"/>
     </row>
-    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="85" t="s">
         <v>102</v>
       </c>
@@ -9375,7 +14398,7 @@
       </c>
       <c r="J11" s="80"/>
     </row>
-    <row r="12" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="79" t="s">
         <v>101</v>
       </c>
@@ -9403,7 +14426,7 @@
       </c>
       <c r="J12" s="74"/>
     </row>
-    <row r="13" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="73" t="s">
         <v>100</v>
       </c>
@@ -9448,17 +14471,74 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" high="1" xr2:uid="{314C30E6-43EB-48A5-8045-63AF3CD0852A}">
+          <x14:colorSeries theme="2" tint="-0.249977111117893"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9" tint="-0.249977111117893"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>트렌드분석!C5:H5</xm:f>
+              <xm:sqref>J5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>트렌드분석!C6:H6</xm:f>
+              <xm:sqref>J6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>트렌드분석!C7:H7</xm:f>
+              <xm:sqref>J7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>트렌드분석!C8:H8</xm:f>
+              <xm:sqref>J8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>트렌드분석!C9:H9</xm:f>
+              <xm:sqref>J9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>트렌드분석!C10:H10</xm:f>
+              <xm:sqref>J10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>트렌드분석!C11:H11</xm:f>
+              <xm:sqref>J11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>트렌드분석!C12:H12</xm:f>
+              <xm:sqref>J12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>트렌드분석!C13:H13</xm:f>
+              <xm:sqref>J13</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423B0C58-7FA5-4C2A-B0ED-3183367DEB68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423B0C58-7FA5-4C2A-B0ED-3183367DEB68}">
   <sheetPr>
     <tabColor rgb="FFFF5050"/>
   </sheetPr>
-  <dimension ref="B1:G18"/>
+  <dimension ref="B1:O18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9467,20 +14547,26 @@
     <col min="4" max="5" width="15.75" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="7" width="6.125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="17.25" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="123" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
     </row>
-    <row r="4" spans="2:7" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="66" t="s">
         <v>92</v>
       </c>
@@ -9499,8 +14585,11 @@
       <c r="G4" s="66" t="s">
         <v>144</v>
       </c>
+      <c r="O4" s="129" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="5" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="55" t="s">
         <v>96</v>
       </c>
@@ -9513,10 +14602,16 @@
       <c r="E5" s="99">
         <v>63125534</v>
       </c>
-      <c r="F5" s="55"/>
+      <c r="F5" s="127">
+        <f>D5/E5</f>
+        <v>0.62</v>
+      </c>
       <c r="G5" s="3"/>
+      <c r="O5" s="129" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="6" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="55" t="s">
         <v>96</v>
       </c>
@@ -9529,10 +14624,16 @@
       <c r="E6" s="99">
         <v>39635887</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="127">
+        <f t="shared" ref="F6:F18" si="0">D6/E6</f>
+        <v>0.93</v>
+      </c>
       <c r="G6" s="3"/>
+      <c r="O6" s="129" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="7" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="55" t="s">
         <v>96</v>
       </c>
@@ -9545,10 +14646,16 @@
       <c r="E7" s="99">
         <v>15055954</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="127">
+        <f t="shared" si="0"/>
+        <v>1.1600000000000001</v>
+      </c>
       <c r="G7" s="3"/>
+      <c r="O7" s="129" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="8" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="55" t="s">
         <v>96</v>
       </c>
@@ -9561,10 +14668,16 @@
       <c r="E8" s="99">
         <v>14783046</v>
       </c>
-      <c r="F8" s="55"/>
+      <c r="F8" s="127">
+        <f t="shared" si="0"/>
+        <v>1.23</v>
+      </c>
       <c r="G8" s="3"/>
+      <c r="O8" s="130" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="9" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B9" s="55" t="s">
         <v>97</v>
       </c>
@@ -9577,10 +14690,13 @@
       <c r="E9" s="99">
         <v>25982999</v>
       </c>
-      <c r="F9" s="55"/>
+      <c r="F9" s="127">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="55" t="s">
         <v>97</v>
       </c>
@@ -9593,10 +14709,16 @@
       <c r="E10" s="99">
         <v>16758496</v>
       </c>
-      <c r="F10" s="55"/>
+      <c r="F10" s="127">
+        <f t="shared" si="0"/>
+        <v>1.29</v>
+      </c>
       <c r="G10" s="3"/>
+      <c r="O10" s="8" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="11" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="55" t="s">
         <v>97</v>
       </c>
@@ -9609,10 +14731,13 @@
       <c r="E11" s="99">
         <v>48326059</v>
       </c>
-      <c r="F11" s="55"/>
+      <c r="F11" s="127">
+        <f t="shared" si="0"/>
+        <v>1.1299999999999999</v>
+      </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="55" t="s">
         <v>97</v>
       </c>
@@ -9625,10 +14750,13 @@
       <c r="E12" s="99">
         <v>73282186</v>
       </c>
-      <c r="F12" s="55"/>
+      <c r="F12" s="127">
+        <f t="shared" si="0"/>
+        <v>0.93</v>
+      </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="55" t="s">
         <v>98</v>
       </c>
@@ -9641,10 +14769,13 @@
       <c r="E13" s="99">
         <v>12911570</v>
       </c>
-      <c r="F13" s="55"/>
+      <c r="F13" s="127">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="55" t="s">
         <v>98</v>
       </c>
@@ -9657,10 +14788,13 @@
       <c r="E14" s="99">
         <v>20348221</v>
       </c>
-      <c r="F14" s="55"/>
+      <c r="F14" s="127">
+        <f t="shared" si="0"/>
+        <v>0.62</v>
+      </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="55" t="s">
         <v>98</v>
       </c>
@@ -9673,10 +14807,13 @@
       <c r="E15" s="99">
         <v>80288977</v>
       </c>
-      <c r="F15" s="55"/>
+      <c r="F15" s="127">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="55" t="s">
         <v>98</v>
       </c>
@@ -9689,7 +14826,10 @@
       <c r="E16" s="99">
         <v>60379689</v>
       </c>
-      <c r="F16" s="55"/>
+      <c r="F16" s="127">
+        <f t="shared" si="0"/>
+        <v>0.87</v>
+      </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -9705,7 +14845,10 @@
       <c r="E17" s="99">
         <v>18124998</v>
       </c>
-      <c r="F17" s="55"/>
+      <c r="F17" s="127">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -9721,7 +14864,10 @@
       <c r="E18" s="99">
         <v>63143562</v>
       </c>
-      <c r="F18" s="55"/>
+      <c r="F18" s="127">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
       <c r="G18" s="3"/>
     </row>
   </sheetData>
@@ -9729,8 +14875,26 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="F5:F18">
+    <cfRule type="iconSet" priority="2">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.8"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="1">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.8"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
